--- a/doc/log/log_201608040220_xueerwei.xlsx
+++ b/doc/log/log_201608040220_xueerwei.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="16152" windowHeight="8508"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,15 @@
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -363,12 +372,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -381,7 +394,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -395,7 +408,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/log_201608040220_xueerwei.xlsx
+++ b/doc/log/log_201608040220_xueerwei.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>时间</t>
+    <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>

--- a/doc/log/log_201608040220_xueerwei.xlsx
+++ b/doc/log/log_201608040220_xueerwei.xlsx
@@ -16,9 +16,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>原计划</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题与后续计划</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>跑通测试类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运行出现错误/解决问题并成功运行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19:00-22:30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20:00-22:50</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决测试类错误</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>loding</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决测试类错误</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>16:00-18:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库表自动生成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -26,7 +86,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -39,6 +99,13 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -65,9 +132,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -370,16 +448,101 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" customWidth="1"/>
+    <col min="3" max="3" width="26.44140625" customWidth="1"/>
+    <col min="4" max="4" width="25.77734375" customWidth="1"/>
+    <col min="5" max="5" width="32.109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>43229</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>43231</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>43234</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>43235</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>43236</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/doc/log/log_201608040220_xueerwei.xlsx
+++ b/doc/log/log_201608040220_xueerwei.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="16152" windowHeight="8508"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -62,10 +62,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>loding</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>解决测试类错误</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -80,6 +76,10 @@
   <si>
     <t>数据库表自动生成</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -450,8 +450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -508,7 +508,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -516,16 +516,16 @@
         <v>43234</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" t="s">
         <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">

--- a/doc/log/log_201608040220_xueerwei.xlsx
+++ b/doc/log/log_201608040220_xueerwei.xlsx
@@ -16,13 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -50,23 +46,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>19:00-22:30</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>20:00-22:50</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>解决测试类错误</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>解决测试类错误</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>16:00-18:00</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -448,22 +432,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.44140625" customWidth="1"/>
-    <col min="2" max="2" width="27.33203125" customWidth="1"/>
-    <col min="3" max="3" width="26.44140625" customWidth="1"/>
-    <col min="4" max="4" width="25.77734375" customWidth="1"/>
-    <col min="5" max="5" width="32.109375" customWidth="1"/>
+    <col min="2" max="2" width="26.44140625" customWidth="1"/>
+    <col min="3" max="3" width="25.77734375" customWidth="1"/>
+    <col min="4" max="4" width="32.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -476,73 +459,59 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>43229</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>43231</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>43234</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>43235</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="2"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>43236</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="2"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/doc/log/log_201608040220_xueerwei.xlsx
+++ b/doc/log/log_201608040220_xueerwei.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -64,6 +64,50 @@
   <si>
     <t>未完成</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>client/web pom修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口类测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BaseEntity添加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日志、xml文件更新、添加usermanagerimpl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实体类划分包、sevice测试类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>journalcontroller添加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>js，jsp文件添加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>js文件名称修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日志文件更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -116,7 +160,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -124,12 +168,23 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -432,22 +487,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" customWidth="1"/>
-    <col min="2" max="2" width="26.44140625" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="43.5546875" customWidth="1"/>
     <col min="3" max="3" width="25.77734375" customWidth="1"/>
     <col min="4" max="4" width="32.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -461,10 +516,10 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="A2" s="6">
         <v>43229</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -475,7 +530,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>43231</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -486,7 +541,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>43234</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -500,18 +555,79 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>43235</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="2"/>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>43236</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="2"/>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>43237</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>43238</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>43251</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>43252</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>43256</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>43258</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/doc/log/log_201608040220_xueerwei.xlsx
+++ b/doc/log/log_201608040220_xueerwei.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="35">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -107,6 +107,54 @@
   </si>
   <si>
     <t>日志文件更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources文件夹名称订正</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能方法实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据网页显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日志更新、帮助其他人员修改错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加主页jsp、修改js文件、网页数据表格显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主页html修改、了解Jenkins</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载安装Jenkins并研究用法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>了解jira</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写立项申请书、概要设计说明书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程设计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -487,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -564,6 +612,9 @@
       <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -583,6 +634,9 @@
       <c r="B7" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="C7" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
@@ -591,6 +645,12 @@
       <c r="B8" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="C8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
@@ -599,6 +659,9 @@
       <c r="B9" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="C9" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
@@ -607,11 +670,17 @@
       <c r="B10" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="C10" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="C11" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
@@ -620,6 +689,9 @@
       <c r="B12" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="C12" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
@@ -627,6 +699,113 @@
       </c>
       <c r="B13" s="1" t="s">
         <v>22</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>43262</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>43265</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>43266</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>43270</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>43271</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>43272</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
+        <v>43273</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
+        <v>43274</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
+        <v>43275</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="7">
+        <v>43276</v>
       </c>
     </row>
   </sheetData>
